--- a/results/I3_N5_M3_T45_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.2845905868544</v>
+        <v>376.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3629999160766602</v>
+        <v>0.4300000667572021</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.18459058684612</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.1000000000083</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.93048325774539</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.82218000304263</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.72365203806504</v>
+        <v>42.37517619638955</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42.05666855417199</v>
+        <v>32.35722294236246</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.37999999999964</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000751</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>105.6119999999996</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000029</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0980000000011</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>105.6119999999997</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>122.0980000000011</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>88.01900000000755</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.611999999999739</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09800000000109</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="4">
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
